--- a/output/3Y_P6_KFSDIV.xlsx
+++ b/output/3Y_P6_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.6477</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.568899999999999</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.429399999999999</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.603999999999999</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.3595</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.0875</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.1692</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0872</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0976</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.8505</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.8576</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.5699</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5994</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6663</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.701</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8109</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.9322</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.5846</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.2867</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.0645</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8083</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.5636</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.1788</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.5668</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.962</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.2659</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.4103</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.3976</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.9013</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.3527</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.8804</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6268</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3636</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.8711</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1252</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1934</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1176</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.6477</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.568899999999999</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.429399999999999</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.603999999999999</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.3595</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.0875</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.1692</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0872</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0976</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.8505</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.8576</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.5699</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5994</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6663</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.701</v>
@@ -3680,7 +3683,7 @@
         <v>193466.7273</v>
       </c>
       <c r="K16" s="1">
-        <v>96433.91190000001</v>
+        <v>96434.71030000001</v>
       </c>
       <c r="L16" s="1">
         <v>10.0822</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8109</v>
@@ -3733,10 +3736,10 @@
         <v>194346.0787</v>
       </c>
       <c r="K17" s="1">
-        <v>106141.7868</v>
+        <v>106142.5852</v>
       </c>
       <c r="L17" s="1">
-        <v>10.3818</v>
+        <v>10.3819</v>
       </c>
       <c r="M17" s="1">
         <v>1</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.9322</v>
@@ -3786,7 +3789,7 @@
         <v>214875.5692</v>
       </c>
       <c r="K18" s="1">
-        <v>125300.1766</v>
+        <v>125300.975</v>
       </c>
       <c r="L18" s="1">
         <v>10.7941</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.5846</v>
@@ -3839,10 +3842,10 @@
         <v>208397.7441</v>
       </c>
       <c r="K19" s="1">
-        <v>133930.0729</v>
+        <v>133930.8713</v>
       </c>
       <c r="L19" s="1">
-        <v>10.9541</v>
+        <v>10.9542</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.2867</v>
@@ -3892,7 +3895,7 @@
         <v>214030.7565</v>
       </c>
       <c r="K20" s="1">
-        <v>160479.5186</v>
+        <v>160480.3171</v>
       </c>
       <c r="L20" s="1">
         <v>11.1974</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.0645</v>
@@ -3945,7 +3948,7 @@
         <v>242451.5794</v>
       </c>
       <c r="K21" s="1">
-        <v>174797.6108</v>
+        <v>174798.4092</v>
       </c>
       <c r="L21" s="1">
         <v>11.281</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8083</v>
@@ -3998,10 +4001,10 @@
         <v>263837.9459</v>
       </c>
       <c r="K22" s="1">
-        <v>172760.7832</v>
+        <v>172769.7192</v>
       </c>
       <c r="L22" s="1">
-        <v>11.2626</v>
+        <v>11.2632</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.5636</v>
@@ -4051,10 +4054,10 @@
         <v>270116.6545</v>
       </c>
       <c r="K23" s="1">
-        <v>171368.8535</v>
+        <v>171383.3527</v>
       </c>
       <c r="L23" s="1">
-        <v>11.2456</v>
+        <v>11.2466</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.1788</v>
@@ -4104,10 +4107,10 @@
         <v>280676.5003</v>
       </c>
       <c r="K24" s="1">
-        <v>185145.1861</v>
+        <v>185159.6854</v>
       </c>
       <c r="L24" s="1">
-        <v>11.3919</v>
+        <v>11.3928</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.5668</v>
@@ -4157,10 +4160,10 @@
         <v>314836.4555</v>
       </c>
       <c r="K25" s="1">
-        <v>201452.9208</v>
+        <v>201467.4201</v>
       </c>
       <c r="L25" s="1">
-        <v>11.52</v>
+        <v>11.5208</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.962</v>
@@ -4210,10 +4213,10 @@
         <v>314871.743</v>
       </c>
       <c r="K26" s="1">
-        <v>187170.7138</v>
+        <v>187242.2597</v>
       </c>
       <c r="L26" s="1">
-        <v>11.3376</v>
+        <v>11.342</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.2659</v>
@@ -4263,10 +4266,10 @@
         <v>301850.8699</v>
       </c>
       <c r="K27" s="1">
-        <v>207215.5195</v>
+        <v>207287.0653</v>
       </c>
       <c r="L27" s="1">
-        <v>11.5494</v>
+        <v>11.5534</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.4103</v>
@@ -4316,10 +4319,10 @@
         <v>314749.5454</v>
       </c>
       <c r="K28" s="1">
-        <v>247747.1821</v>
+        <v>247818.728</v>
       </c>
       <c r="L28" s="1">
-        <v>11.6645</v>
+        <v>11.6679</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.3976</v>
@@ -4369,10 +4372,10 @@
         <v>324444.8432</v>
       </c>
       <c r="K29" s="1">
-        <v>254714.4306</v>
+        <v>254785.9764</v>
       </c>
       <c r="L29" s="1">
-        <v>11.6843</v>
+        <v>11.6876</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.9013</v>
@@ -4422,10 +4425,10 @@
         <v>355589.7484</v>
       </c>
       <c r="K30" s="1">
-        <v>265032.4844</v>
+        <v>265104.0302</v>
       </c>
       <c r="L30" s="1">
-        <v>11.7114</v>
+        <v>11.7146</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.3527</v>
@@ -4475,10 +4478,10 @@
         <v>375736.5388</v>
       </c>
       <c r="K31" s="1">
-        <v>263650.7136</v>
+        <v>263727.7856</v>
       </c>
       <c r="L31" s="1">
-        <v>11.7056</v>
+        <v>11.7091</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.8804</v>
@@ -4528,10 +4531,10 @@
         <v>397591.5591</v>
       </c>
       <c r="K32" s="1">
-        <v>263503.3338</v>
+        <v>263580.9952</v>
       </c>
       <c r="L32" s="1">
-        <v>11.7048</v>
+        <v>11.7083</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6268</v>
@@ -4581,10 +4584,10 @@
         <v>434394.0914</v>
       </c>
       <c r="K33" s="1">
-        <v>261640.8681</v>
+        <v>261725.9749</v>
       </c>
       <c r="L33" s="1">
-        <v>11.6916</v>
+        <v>11.6954</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3636</v>
@@ -4634,10 +4637,10 @@
         <v>460512.9055</v>
       </c>
       <c r="K34" s="1">
-        <v>254942.1697</v>
+        <v>255054.0144</v>
       </c>
       <c r="L34" s="1">
-        <v>11.6298</v>
+        <v>11.6349</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.8711</v>
@@ -4687,10 +4690,10 @@
         <v>438455.3691</v>
       </c>
       <c r="K35" s="1">
-        <v>248798.8132</v>
+        <v>248935.2003</v>
       </c>
       <c r="L35" s="1">
-        <v>11.56</v>
+        <v>11.5664</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1252</v>
@@ -4740,10 +4743,10 @@
         <v>464200.3389</v>
       </c>
       <c r="K36" s="1">
-        <v>291024.9637</v>
+        <v>291161.3509</v>
       </c>
       <c r="L36" s="1">
-        <v>11.8493</v>
+        <v>11.8549</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1934</v>
@@ -4793,10 +4796,10 @@
         <v>475873.5255</v>
       </c>
       <c r="K37" s="1">
-        <v>294811.5519</v>
+        <v>294947.9391</v>
       </c>
       <c r="L37" s="1">
-        <v>11.8742</v>
+        <v>11.8797</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1176</v>
@@ -4846,10 +4849,10 @@
         <v>483918.8411</v>
       </c>
       <c r="K38" s="1">
-        <v>303156.5784</v>
+        <v>303292.9656</v>
       </c>
       <c r="L38" s="1">
-        <v>11.9284</v>
+        <v>11.9337</v>
       </c>
       <c r="M38" s="1">
         <v>0.5</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.6477</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.568899999999999</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.429399999999999</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.603999999999999</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.3595</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.0875</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.1692</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0872</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0976</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.8505</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.8576</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.5699</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5994</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6663</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.701</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8109</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.9322</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.5846</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.2867</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.0645</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8083</v>
@@ -6038,10 +6041,10 @@
         <v>265663.1863</v>
       </c>
       <c r="K22" s="1">
-        <v>182111.9721</v>
+        <v>182118.3566</v>
       </c>
       <c r="L22" s="1">
-        <v>11.3182</v>
+        <v>11.3186</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.5636</v>
@@ -6091,10 +6094,10 @@
         <v>271749.8034</v>
       </c>
       <c r="K23" s="1">
-        <v>181213.5423</v>
+        <v>181223.5176</v>
       </c>
       <c r="L23" s="1">
-        <v>11.308</v>
+        <v>11.3086</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.1788</v>
@@ -6144,10 +6147,10 @@
         <v>282319.5048</v>
       </c>
       <c r="K24" s="1">
-        <v>196291.3668</v>
+        <v>196301.3421</v>
       </c>
       <c r="L24" s="1">
-        <v>11.4558</v>
+        <v>11.4563</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.5668</v>
@@ -6197,10 +6200,10 @@
         <v>317853.6493</v>
       </c>
       <c r="K25" s="1">
-        <v>214103.7608</v>
+        <v>214113.7361</v>
       </c>
       <c r="L25" s="1">
-        <v>11.5834</v>
+        <v>11.584</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.962</v>
@@ -6250,10 +6253,10 @@
         <v>317294.3943</v>
       </c>
       <c r="K26" s="1">
-        <v>199656.2079</v>
+        <v>199723.8902</v>
       </c>
       <c r="L26" s="1">
-        <v>11.413</v>
+        <v>11.4168</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.2659</v>
@@ -6303,10 +6306,10 @@
         <v>302815.2854</v>
       </c>
       <c r="K27" s="1">
-        <v>221574.6404</v>
+        <v>221642.3228</v>
       </c>
       <c r="L27" s="1">
-        <v>11.6248</v>
+        <v>11.6283</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.4103</v>
@@ -6356,10 +6359,10 @@
         <v>315900.2014</v>
       </c>
       <c r="K28" s="1">
-        <v>265341.1787</v>
+        <v>265408.861</v>
       </c>
       <c r="L28" s="1">
-        <v>11.7296</v>
+        <v>11.7326</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.3976</v>
@@ -6409,10 +6412,10 @@
         <v>325571.974</v>
       </c>
       <c r="K29" s="1">
-        <v>273498.6158</v>
+        <v>273566.2982</v>
       </c>
       <c r="L29" s="1">
-        <v>11.7495</v>
+        <v>11.7524</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.9013</v>
@@ -6462,10 +6465,10 @@
         <v>358178.2874</v>
       </c>
       <c r="K30" s="1">
-        <v>285282.8106</v>
+        <v>285350.4929</v>
       </c>
       <c r="L30" s="1">
-        <v>11.7758</v>
+        <v>11.7786</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.3527</v>
@@ -6515,10 +6518,10 @@
         <v>379068.3808</v>
       </c>
       <c r="K31" s="1">
-        <v>284600.3252</v>
+        <v>284670.737</v>
       </c>
       <c r="L31" s="1">
-        <v>11.7733</v>
+        <v>11.7762</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.8804</v>
@@ -6568,10 +6571,10 @@
         <v>401821.7148</v>
       </c>
       <c r="K32" s="1">
-        <v>285269.1258</v>
+        <v>285339.5377</v>
       </c>
       <c r="L32" s="1">
-        <v>11.7766</v>
+        <v>11.7795</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6268</v>
@@ -6621,10 +6624,10 @@
         <v>440707.1827</v>
       </c>
       <c r="K33" s="1">
-        <v>284122.5346</v>
+        <v>284197.5301</v>
       </c>
       <c r="L33" s="1">
-        <v>11.7693</v>
+        <v>11.7725</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3636</v>
@@ -6674,10 +6677,10 @@
         <v>468139.9943</v>
       </c>
       <c r="K34" s="1">
-        <v>277784.3394</v>
+        <v>277884.6339</v>
       </c>
       <c r="L34" s="1">
-        <v>11.7167</v>
+        <v>11.7209</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.8711</v>
@@ -6727,10 +6730,10 @@
         <v>443380.2341</v>
       </c>
       <c r="K35" s="1">
-        <v>272059.0869</v>
+        <v>272182.2535</v>
       </c>
       <c r="L35" s="1">
-        <v>11.6581</v>
+        <v>11.6634</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1252</v>
@@ -6780,10 +6783,10 @@
         <v>470465.9331</v>
       </c>
       <c r="K36" s="1">
-        <v>318794.5509</v>
+        <v>318917.7175</v>
       </c>
       <c r="L36" s="1">
-        <v>11.9403</v>
+        <v>11.9449</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1934</v>
@@ -6833,10 +6836,10 @@
         <v>482285.611</v>
       </c>
       <c r="K37" s="1">
-        <v>323892.0472</v>
+        <v>324015.2139</v>
       </c>
       <c r="L37" s="1">
-        <v>11.9697</v>
+        <v>11.9743</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1176</v>
@@ -6886,10 +6889,10 @@
         <v>490145.8358</v>
       </c>
       <c r="K38" s="1">
-        <v>333999.6579</v>
+        <v>334122.8245</v>
       </c>
       <c r="L38" s="1">
-        <v>12.0274</v>
+        <v>12.0318</v>
       </c>
       <c r="M38" s="1">
         <v>0.5</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.6477</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.568899999999999</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.429399999999999</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.603999999999999</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.3595</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.0875</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.1692</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0872</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0976</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.8505</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.8576</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.5699</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5994</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6663</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.701</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8109</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.9322</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.5846</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.2867</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.0645</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8083</v>
@@ -8078,10 +8081,10 @@
         <v>267565.1296</v>
       </c>
       <c r="K22" s="1">
-        <v>192064.3994</v>
+        <v>192068.788</v>
       </c>
       <c r="L22" s="1">
-        <v>11.373</v>
+        <v>11.3732</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.5636</v>
@@ -8131,10 +8134,10 @@
         <v>273447.0433</v>
       </c>
       <c r="K23" s="1">
-        <v>191729.1375</v>
+        <v>191734.866</v>
       </c>
       <c r="L23" s="1">
-        <v>11.3694</v>
+        <v>11.3698</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.1788</v>
@@ -8184,10 +8187,10 @@
         <v>284025.854</v>
       </c>
       <c r="K24" s="1">
-        <v>208237.0982</v>
+        <v>208242.8267</v>
       </c>
       <c r="L24" s="1">
-        <v>11.5187</v>
+        <v>11.519</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.5668</v>
@@ -8237,10 +8240,10 @@
         <v>321034.1631</v>
       </c>
       <c r="K25" s="1">
-        <v>227705.9469</v>
+        <v>227711.6754</v>
       </c>
       <c r="L25" s="1">
-        <v>11.6458</v>
+        <v>11.6461</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.962</v>
@@ -8290,10 +8293,10 @@
         <v>319834.8789</v>
       </c>
       <c r="K26" s="1">
-        <v>213133.2162</v>
+        <v>213197.1517</v>
       </c>
       <c r="L26" s="1">
-        <v>11.4871</v>
+        <v>11.4905</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.2659</v>
@@ -8343,10 +8346,10 @@
         <v>303778.8332</v>
       </c>
       <c r="K27" s="1">
-        <v>237125.714</v>
+        <v>237189.6495</v>
       </c>
       <c r="L27" s="1">
-        <v>11.6989</v>
+        <v>11.702</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.4103</v>
@@ -8396,10 +8399,10 @@
         <v>317065.3987</v>
       </c>
       <c r="K28" s="1">
-        <v>284448.6324</v>
+        <v>284512.5679</v>
       </c>
       <c r="L28" s="1">
-        <v>11.7933</v>
+        <v>11.796</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.3976</v>
@@ -8449,10 +8452,10 @@
         <v>326711.3349</v>
       </c>
       <c r="K29" s="1">
-        <v>293963.6058</v>
+        <v>294027.5413</v>
       </c>
       <c r="L29" s="1">
-        <v>11.813</v>
+        <v>11.8156</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.9013</v>
@@ -8502,10 +8505,10 @@
         <v>360909.5925</v>
       </c>
       <c r="K30" s="1">
-        <v>307415.44</v>
+        <v>307479.3755</v>
       </c>
       <c r="L30" s="1">
-        <v>11.8385</v>
+        <v>11.8409</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.3527</v>
@@ -8555,10 +8558,10 @@
         <v>382612.8875</v>
       </c>
       <c r="K31" s="1">
-        <v>307575.1145</v>
+        <v>307639.0501</v>
       </c>
       <c r="L31" s="1">
-        <v>11.839</v>
+        <v>11.8414</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.8804</v>
@@ -8608,10 +8611,10 @@
         <v>406352.152</v>
       </c>
       <c r="K32" s="1">
-        <v>309222.8083</v>
+        <v>309286.7438</v>
       </c>
       <c r="L32" s="1">
-        <v>11.8462</v>
+        <v>11.8487</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6268</v>
@@ -8661,10 +8664,10 @@
         <v>447530.8883</v>
       </c>
       <c r="K33" s="1">
-        <v>308954.3712</v>
+        <v>309019.3799</v>
       </c>
       <c r="L33" s="1">
-        <v>11.8447</v>
+        <v>11.8472</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3636</v>
@@ -8714,10 +8717,10 @@
         <v>476417.1354</v>
       </c>
       <c r="K34" s="1">
-        <v>303111.9502</v>
+        <v>303200.279</v>
       </c>
       <c r="L34" s="1">
-        <v>11.8011</v>
+        <v>11.8045</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.8711</v>
@@ -8767,10 +8770,10 @@
         <v>448658.2064</v>
       </c>
       <c r="K35" s="1">
-        <v>297954.5061</v>
+        <v>298063.4387</v>
       </c>
       <c r="L35" s="1">
-        <v>11.7536</v>
+        <v>11.7579</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1252</v>
@@ -8820,10 +8823,10 @@
         <v>477233.5709</v>
       </c>
       <c r="K36" s="1">
-        <v>349807.3908</v>
+        <v>349916.3234</v>
       </c>
       <c r="L36" s="1">
-        <v>12.0288</v>
+        <v>12.0326</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1934</v>
@@ -8873,10 +8876,10 @@
         <v>489216.4902</v>
       </c>
       <c r="K37" s="1">
-        <v>356484.9291</v>
+        <v>356593.8617</v>
       </c>
       <c r="L37" s="1">
-        <v>12.0627</v>
+        <v>12.0664</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1176</v>
@@ -8926,10 +8929,10 @@
         <v>496868.6888</v>
       </c>
       <c r="K38" s="1">
-        <v>368690.127</v>
+        <v>368799.0596</v>
       </c>
       <c r="L38" s="1">
-        <v>12.1237</v>
+        <v>12.1272</v>
       </c>
       <c r="M38" s="1">
         <v>0.5</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.6477</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.568899999999999</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.429399999999999</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.603999999999999</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.3595</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.0875</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.1692</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0872</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0976</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.8505</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.8576</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.5699</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5994</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6663</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.701</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8109</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.9322</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.5846</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.2867</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.0645</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8083</v>
@@ -10118,10 +10121,10 @@
         <v>269548.5797</v>
       </c>
       <c r="K22" s="1">
-        <v>202658.1246</v>
+        <v>202660.2496</v>
       </c>
       <c r="L22" s="1">
-        <v>11.427</v>
+        <v>11.4271</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.5636</v>
@@ -10171,10 +10174,10 @@
         <v>275211.0775</v>
       </c>
       <c r="K23" s="1">
-        <v>202963.1665</v>
+        <v>202965.2915</v>
       </c>
       <c r="L23" s="1">
-        <v>11.43</v>
+        <v>11.4301</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.1788</v>
@@ -10224,10 +10227,10 @@
         <v>285798.0908</v>
       </c>
       <c r="K24" s="1">
-        <v>221042.2601</v>
+        <v>221044.3851</v>
       </c>
       <c r="L24" s="1">
-        <v>11.5806</v>
+        <v>11.5807</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.5668</v>
@@ -10277,10 +10280,10 @@
         <v>324388.3238</v>
       </c>
       <c r="K25" s="1">
-        <v>242334.4804</v>
+        <v>242336.6053</v>
       </c>
       <c r="L25" s="1">
-        <v>11.7071</v>
+        <v>11.7072</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.962</v>
@@ -10330,10 +10333,10 @@
         <v>322499.7904</v>
       </c>
       <c r="K26" s="1">
-        <v>227684.3674</v>
+        <v>227745.0085</v>
       </c>
       <c r="L26" s="1">
-        <v>11.5599</v>
+        <v>11.563</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.2659</v>
@@ -10383,10 +10386,10 @@
         <v>304737.7205</v>
       </c>
       <c r="K27" s="1">
-        <v>253972.9706</v>
+        <v>254033.6117</v>
       </c>
       <c r="L27" s="1">
-        <v>11.7716</v>
+        <v>11.7744</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.4103</v>
@@ -10436,10 +10439,10 @@
         <v>318238.0284</v>
       </c>
       <c r="K28" s="1">
-        <v>304600.7039</v>
+        <v>304661.345</v>
       </c>
       <c r="L28" s="1">
-        <v>11.8547</v>
+        <v>11.8571</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.3976</v>
@@ -10489,10 +10492,10 @@
         <v>327861.5294</v>
       </c>
       <c r="K29" s="1">
-        <v>314600.7039</v>
+        <v>314661.345</v>
       </c>
       <c r="L29" s="1">
-        <v>11.8724</v>
+        <v>11.8747</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.9013</v>
@@ -10542,10 +10545,10 @@
         <v>363471.4631</v>
       </c>
       <c r="K30" s="1">
-        <v>324600.7039</v>
+        <v>324661.345</v>
       </c>
       <c r="L30" s="1">
-        <v>11.8886</v>
+        <v>11.8908</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.3527</v>
@@ -10595,10 +10598,10 @@
         <v>386033.1348</v>
       </c>
       <c r="K31" s="1">
-        <v>333074.4961</v>
+        <v>333135.1372</v>
       </c>
       <c r="L31" s="1">
-        <v>11.9129</v>
+        <v>11.9151</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.8804</v>
@@ -10648,10 +10651,10 @@
         <v>410855.9375</v>
       </c>
       <c r="K32" s="1">
-        <v>335889.9983</v>
+        <v>335950.6394</v>
       </c>
       <c r="L32" s="1">
-        <v>11.9239</v>
+        <v>11.926</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6268</v>
@@ -10701,10 +10704,10 @@
         <v>454558.1464</v>
       </c>
       <c r="K33" s="1">
-        <v>336689.9374</v>
+        <v>336750.5785</v>
       </c>
       <c r="L33" s="1">
-        <v>11.9279</v>
+        <v>11.9301</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3636</v>
@@ -10754,10 +10757,10 @@
         <v>485053.3636</v>
       </c>
       <c r="K34" s="1">
-        <v>331505.3776</v>
+        <v>331586.713</v>
       </c>
       <c r="L34" s="1">
-        <v>11.8933</v>
+        <v>11.8962</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.8711</v>
@@ -10807,10 +10810,10 @@
         <v>453962.7786</v>
       </c>
       <c r="K35" s="1">
-        <v>327095.7876</v>
+        <v>327194.739</v>
       </c>
       <c r="L35" s="1">
-        <v>11.857</v>
+        <v>11.8605</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1252</v>
@@ -10860,10 +10863,10 @@
         <v>484194.7771</v>
       </c>
       <c r="K36" s="1">
-        <v>384761.4303</v>
+        <v>384860.3818</v>
       </c>
       <c r="L36" s="1">
-        <v>12.1239</v>
+        <v>12.127</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1934</v>
@@ -10913,10 +10916,10 @@
         <v>496359.7775</v>
       </c>
       <c r="K37" s="1">
-        <v>393337.4385</v>
+        <v>393436.39</v>
       </c>
       <c r="L37" s="1">
-        <v>12.1619</v>
+        <v>12.165</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1176</v>
@@ -10966,10 +10969,10 @@
         <v>503777.9094</v>
       </c>
       <c r="K38" s="1">
-        <v>408035.7194</v>
+        <v>408134.6709</v>
       </c>
       <c r="L38" s="1">
-        <v>12.2257</v>
+        <v>12.2287</v>
       </c>
       <c r="M38" s="1">
         <v>0.5</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,16 +11048,16 @@
         <v>12.5837</v>
       </c>
       <c r="D3" s="1">
-        <v>11.9284</v>
+        <v>11.9337</v>
       </c>
       <c r="E3" s="1">
-        <v>12.0274</v>
+        <v>12.0318</v>
       </c>
       <c r="F3" s="1">
-        <v>12.1237</v>
+        <v>12.1272</v>
       </c>
       <c r="G3" s="1">
-        <v>12.2257</v>
+        <v>12.2287</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>96694.8928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.1197</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.5955</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.467</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.3473</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.2343</v>
       </c>
     </row>
   </sheetData>
